--- a/Agg withouth exits/Flows/CountryFlowsNoEx.xlsx
+++ b/Agg withouth exits/Flows/CountryFlowsNoEx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Python_VSC\.venv\Tesi_SpaceEconomy\Agg withouth exits\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929563D8-4F7D-4B50-80DB-7EDBED185C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1519B5-FFFC-41FF-84E2-C6008CD5DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="4380" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
+    <t>company_country</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
@@ -57,15 +60,15 @@
   </si>
   <si>
     <t>Column percentage</t>
-  </si>
-  <si>
-    <t>Destination/Origin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,11 +126,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -432,79 +436,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="A1:H8"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>26.045901193882109</v>
+        <v>24.77346786054877</v>
       </c>
       <c r="C2">
-        <v>1.730239525179992</v>
+        <v>1.7327538108942779</v>
       </c>
       <c r="D2">
-        <v>3.0959047619047619E-2</v>
+        <v>3.3409047619047623E-2</v>
       </c>
       <c r="E2">
-        <v>0.26316535984278883</v>
+        <v>0.2613653598427888</v>
       </c>
       <c r="F2">
         <v>0.20229290149393089</v>
       </c>
       <c r="G2">
-        <v>4.1984820925703721</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.59496441007175738</v>
-      </c>
-      <c r="I2">
-        <f>H2/100</f>
-        <v>5.9496441007175736E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3.5807911401894201</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.6331732699428978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1.510703231892335</v>
+        <v>0.68570323189233551</v>
       </c>
       <c r="C3">
-        <v>1.630567884996919</v>
+        <v>1.69815191203053</v>
       </c>
       <c r="D3">
         <v>3.3E-4</v>
@@ -513,25 +520,21 @@
         <v>0.106360129821453</v>
       </c>
       <c r="F3">
-        <v>0.80185171581735304</v>
+        <v>8.6851715817352987E-2</v>
       </c>
       <c r="G3">
-        <v>3.6213243762935501</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.14055766875412151</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="H3:I8" si="0">H3/100</f>
-        <v>1.4055766875412151E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.79632437629355024</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.9845167180842604E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.7097912346003079</v>
+        <v>1.634791234600308</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -548,17 +551,13 @@
       <c r="G4">
         <v>0.25523535714285722</v>
       </c>
-      <c r="H4" s="2">
-        <v>6.2751302752580423E-2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>6.2751302752580423E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4" s="3">
+        <v>6.9348745581524471E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.42758078807303812</v>
@@ -578,17 +577,13 @@
       <c r="G5">
         <v>0.7680973351729049</v>
       </c>
-      <c r="H5" s="2">
-        <v>5.1058576294065988E-2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>5.105857629406599E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="3">
+        <v>5.7690069636588362E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.25961087500000002</v>
@@ -603,25 +598,21 @@
         <v>5.255361904761905E-2</v>
       </c>
       <c r="F6">
-        <v>1.2279031210317459</v>
+        <v>1.2468781210317459</v>
       </c>
       <c r="G6">
-        <v>0.25329451587301588</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.4284806966127387E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>3.4284806966127385E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.25807951587301592</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.9229617690892428E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1.1988839255762309</v>
+        <v>1.168974121654663</v>
       </c>
       <c r="C7">
         <v>0.51459644297291096</v>
@@ -630,76 +621,42 @@
         <v>0.1584533102337953</v>
       </c>
       <c r="E7">
-        <v>0.22062223067561121</v>
+        <v>0.22052223067561119</v>
       </c>
       <c r="F7">
         <v>0.13066958929311251</v>
       </c>
       <c r="G7">
-        <v>4.1285572874357932</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.1163832351613473</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1.163832351613473E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.1206023854750082</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1307131299672544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>0.5708043724537516</v>
+        <v>0.59934603916549323</v>
       </c>
       <c r="C8" s="2">
-        <v>7.6611659436784038E-2</v>
+        <v>8.8013214823785935E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>3.2124612248009478E-2</v>
+        <v>3.6347681951716407E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>3.2572374272505651E-2</v>
+        <v>3.6763542577435339E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>4.5566473278460376E-2</v>
+        <v>3.7075049592107494E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>0.24232050831048879</v>
+        <v>0.20245447188946158</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <f>B8/100</f>
-        <v>5.7080437245375162E-3</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:G9" si="1">C8/100</f>
-        <v>7.6611659436784038E-4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3.2124612248009477E-4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>3.2572374272505652E-4</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>4.5566473278460377E-4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>2.4232050831048879E-3</v>
       </c>
     </row>
   </sheetData>
